--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 4/ZZZ    ASIGNACIONES 2024.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 4/ZZZ    ASIGNACIONES 2024.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JESUS PACHECO\Documents\DOCUMENTOS 2\CAMIONETAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO  2 0 2 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>JESUS PACHECO:</t>
         </r>
@@ -47,7 +48,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -134,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="135">
   <si>
     <t>N°</t>
   </si>
@@ -564,7 +565,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,25 +680,6 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -705,6 +687,12 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Arial Black"/>
       <family val="2"/>
     </font>
     <font>
@@ -965,7 +953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1097,30 +1085,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1132,6 +1096,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1413,16 +1407,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17" style="53" customWidth="1"/>
+    <col min="2" max="2" width="17" style="45" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="33.140625" customWidth="1"/>
@@ -1430,24 +1427,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1904,14 +1901,14 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="51"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
@@ -1994,14 +1991,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
     </row>
     <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
@@ -2084,15 +2081,15 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="48"/>
-      <c r="H36" s="54"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="52"/>
+      <c r="H36" s="46"/>
     </row>
     <row r="37" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
@@ -2158,7 +2155,7 @@
       <c r="A40" s="9">
         <v>33</v>
       </c>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="48" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="14">
@@ -2178,7 +2175,7 @@
       <c r="A41" s="12">
         <v>34</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C41" s="7">
@@ -2220,4 +2217,57 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>